--- a/getting_started/data/result241002.xlsx
+++ b/getting_started/data/result241002.xlsx
@@ -466,12 +466,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>파이썬(판다스)으로 배우는 데이터 분석 입문</t>
+          <t>빅데이터 수집시스템 개발</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[상시] 2024.01.01~2024.12.31</t>
+          <t>[정규] 2024.10.15~2024.11.14</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>파이썬 데이터 시각화</t>
+          <t>파이썬을 이용한 비트코인 자동매매</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[정규] 2024.10.15~2024.11.14</t>
+          <t>[상시] 2024.01.01~2024.12.31</t>
         </is>
       </c>
     </row>
@@ -496,12 +496,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>파이썬으로 배우는 실전 금융 데이터 분석(퀀트)</t>
+          <t>Python GPT API 가이드 - 코드 구현, 이용요금 충전, 사용량 확인</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[상시] 2024.01.01~2024.12.31</t>
+          <t>[상시] 2024.07.12~2024.12.31</t>
         </is>
       </c>
     </row>
@@ -511,12 +511,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>파이썬으로 하는 주식, 암호화폐 시장 데이터 분석</t>
+          <t>파이썬(판다스)으로 배우는 데이터 분석 입문</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[정규] 2024.10.15~2024.11.14</t>
+          <t>[상시] 2024.01.01~2024.12.31</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>빅데이터 수집시스템 개발</t>
+          <t>세상에서 가장 쉬운 IT 부트캠프, 파이썬 BASIC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[정규] 2024.10.15~2024.11.14</t>
+          <t>[상시] 2024.01.01~2024.12.31</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>파이썬을 이용한 비트코인 자동매매</t>
+          <t>[K-디지털] 빅데이터 수집시스템 개발</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[상시] 2024.01.01~2024.12.31</t>
+          <t>[상시] 2024.02.25~2025.02.28</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Python GPT API 가이드 - 코드 구현, 이용요금 충전, 사용량 확인</t>
+          <t>GPT API를 사용한 티스토리 자동 글쓰기 프로그램 만들기</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>파이썬 데이터 시각화</t>
+          <t>파이썬으로 하는 주식, 암호화폐 시장 데이터 분석</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -586,12 +586,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>전문가에게 배우는 나의 첫 파이썬</t>
+          <t>[K-디지털] 파이썬으로 하는 주식, 암호화폐 시장 데이터 분석</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[상시] 2024.01.01~2024.12.31</t>
+          <t>[상시] 2024.02.25~2025.02.28</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GPT API를 사용한 티스토리 자동 글쓰기 프로그램 만들기</t>
+          <t>파이썬으로 하는 주식, 암호화폐 시장 데이터 분석</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[상시] 2024.07.12~2024.12.31</t>
+          <t>[정규] 2024.10.15~2024.11.14</t>
         </is>
       </c>
     </row>
@@ -616,12 +616,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[K-디지털] 파이썬으로 하는 주식, 암호화폐 시장 데이터 분석</t>
+          <t>빅데이터 수집시스템 개발</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[상시] 2024.02.25~2025.02.28</t>
+          <t>[상시] 2024.06.01~2024.12.31</t>
         </is>
       </c>
     </row>
